--- a/public/Documentos/pasar_a_json/Afirmaciones.xlsx
+++ b/public/Documentos/pasar_a_json/Afirmaciones.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Afirmacion</t>
   </si>
@@ -22,73 +22,73 @@
     <t>La capital de Noruega es Madrid</t>
   </si>
   <si>
-    <t>Los globulos blancos se encargan de las defensas del organismo</t>
-  </si>
-  <si>
-    <t>La capital de holanda es Amsterdan</t>
-  </si>
-  <si>
-    <t>MRUA siginifica movimiento rectilineo uniforme  antiguo</t>
-  </si>
-  <si>
-    <t>Los globulos rojos transportan nutrientes</t>
+    <t>Los glóbulos blancos se encargan de las defensas del organismo</t>
+  </si>
+  <si>
+    <t>La capital de holanda es Amsterdam</t>
+  </si>
+  <si>
+    <t>MRUA significa movimiento rectilíneo uniforme  antiguo</t>
+  </si>
+  <si>
+    <t>Los glóbulos rojos transportan nutrientes</t>
   </si>
   <si>
     <t>MRU significa Movimiento rectilinio uniforme</t>
   </si>
   <si>
-    <t xml:space="preserve">El pasado del verbo  eat  es  eated </t>
+    <t>El pasado del verbo "eat" es "eated"</t>
   </si>
   <si>
     <t>La capital de finlandia es Oslo</t>
   </si>
   <si>
-    <t>Los ecosistemas estan conformados por el biotopo y la bionenosis</t>
-  </si>
-  <si>
-    <t>El bolo alimentario se produce en el estomago</t>
-  </si>
-  <si>
-    <t>La Edad Media dura 8 siglos</t>
+    <t>Los ecosistemas están conformados por el biotopo y la biocenosis</t>
+  </si>
+  <si>
+    <t>El bolo alimenticio se produce en el estómago</t>
+  </si>
+  <si>
+    <t>La Edad Media duró 8 siglos</t>
   </si>
   <si>
     <t>En el calentamiento de E.F el movimiento que hacemos en el tobillo se llama circunducción</t>
   </si>
   <si>
-    <t>Un ion es un atomo que ha ganado o perdido un proton</t>
+    <t>Un ion es un átomo que ha ganado o perdido un protón</t>
   </si>
   <si>
     <t>El sector primario es el que se extraen primeras materias de la naturaleza</t>
   </si>
   <si>
-    <t>La formula de una función lineal es: y=xm+n</t>
-  </si>
-  <si>
-    <t>El descomponedor se alimenta de substáncias inorgánicas y genera substáncias orgánicas</t>
-  </si>
-  <si>
-    <t>Existe la clave de  do  en cuarta</t>
-  </si>
-  <si>
-    <t>Un buen fotografo pone siempre el horizonte en el centro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesús murio en la fecha que hoy se conoce como Navidad </t>
-  </si>
-  <si>
-    <t>Panal y pañal son palabras parónimas</t>
+    <t>La fórmula de una función lineal es: y = mx + n</t>
+  </si>
+  <si>
+    <t>El descomponedor se alimentan de substancias inorgánicas y genera substancias orgánicas</t>
+  </si>
+  <si>
+    <t>Existe la clave de "do" en cuarta</t>
+  </si>
+  <si>
+    <t>Un buen fotógrafo pone siempre el horizonte en el centro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesús murió en la fecha que hoy se conoce como Navidad </t>
+  </si>
+  <si>
+    <t>Pañal y pañal son palabras parónimas</t>
   </si>
   <si>
     <t>La Cuaresma dura 40 días</t>
   </si>
   <si>
-    <t>En valenciano: la estructura externa de un texto consiste en decir cuantas lineas y parrafos tiene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marta come tarta con su hermana. En esta frase el CD es  tarta </t>
-  </si>
-  <si>
-    <t>En inglés rotula es rotul</t>
+    <t>En valenciano: la estructura externa de un texto consiste en decir cuantas líneas y párrafos tiene</t>
+  </si>
+  <si>
+    <t>Marta come tarta con su hermana. En esta frase el CD es "tarta"</t>
+  </si>
+  <si>
+    <t>En inglés rótula es rotul</t>
   </si>
   <si>
     <t>La mejor liga de basket de España es la CBA</t>
@@ -97,34 +97,34 @@
     <t>El lobo es un productor</t>
   </si>
   <si>
-    <t>Una de las actividades economicas del sector terciario es la mineria</t>
+    <t>Una de las actividades económicas del sector terciario es la minería</t>
   </si>
   <si>
     <t>En formulación en tradicional el NH3 se llama nitrógeno</t>
   </si>
   <si>
-    <t xml:space="preserve">El pasado simple del verbo  to be  es  was </t>
-  </si>
-  <si>
-    <t>Una equación de segundo grado no simpre tiene 2 soluciones</t>
-  </si>
-  <si>
-    <t>El Romanticismo va despues que el Barroco</t>
+    <t>El pasado simple del verbo "to be" es "was"</t>
+  </si>
+  <si>
+    <t>Una ecuación de segundo grado no siempre tiene 2 soluciones</t>
+  </si>
+  <si>
+    <t>El Romanticismo va después que el Barroco</t>
   </si>
   <si>
     <t>La lengua más hablada del mundo es el chino</t>
   </si>
   <si>
-    <t>Al final del Quijote, don Quijote se reunio con Dulcinea.</t>
-  </si>
-  <si>
-    <t>La capital de Ucraina es Kiev</t>
+    <t>Al final del Quijote, don Quijote se reunió con Dulcinea.</t>
+  </si>
+  <si>
+    <t>La capital de Ucrania es Kiev</t>
   </si>
   <si>
     <t>El Barroco transcurre a lo largo de los siglos XI y XIII</t>
   </si>
   <si>
-    <t>Muñeca en ingés es Wrist</t>
+    <t>Muñeca en inglés es Wrist</t>
   </si>
   <si>
     <t>El balón medicinal pesa 3000g</t>
@@ -133,34 +133,34 @@
     <t>El folkaball es un deporte parecido al football</t>
   </si>
   <si>
-    <t>La fórmula de la densidad es d=v:m</t>
+    <t>La fórmula de la densidad es d = v / m</t>
   </si>
   <si>
     <t>Un metal tiende a formar un catión</t>
   </si>
   <si>
-    <t>Las elecciones en democracia directa se celebrna cada semana</t>
-  </si>
-  <si>
-    <t>Cuanta más presion más volumen</t>
-  </si>
-  <si>
-    <t>La democracia se invento en Atenas</t>
-  </si>
-  <si>
-    <t>El segundo condicional se utiliza para expresar hipotesis</t>
-  </si>
-  <si>
-    <t>La formula del rombo es b . h</t>
+    <t>Las elecciones en democracia directa se celebran cada semana</t>
+  </si>
+  <si>
+    <t>Cuanta más presión más volumen</t>
+  </si>
+  <si>
+    <t>La democracia se inventó en Atenas</t>
+  </si>
+  <si>
+    <t>El segundo condicional se utiliza para expresar hipótesis</t>
+  </si>
+  <si>
+    <t>La fórmula del rombo es b · h</t>
   </si>
   <si>
     <t>Plaster cast significa escayola</t>
   </si>
   <si>
-    <t>Must not significa que estas obligado a hacerlo</t>
-  </si>
-  <si>
-    <t>Old y entushiastic significan lo mismo</t>
+    <t>Must not significa que estás obligado a hacerlo</t>
+  </si>
+  <si>
+    <t>Old y enthusiastic significan lo mismo</t>
   </si>
   <si>
     <t>Cantar a capella es cantar sin música</t>
@@ -172,7 +172,7 @@
     <t>Una progresión aritmética es lo mismo que una geométrica</t>
   </si>
   <si>
-    <t>Los herzios del la nota  la  equivalen a 440Hz</t>
+    <t>Los herzios del la nota "la" equivalen a 440Hz</t>
   </si>
   <si>
     <t>El papel básik es mejor para dibujar</t>
@@ -181,7 +181,7 @@
     <t>La rejilla de los tercios tiene 3 tercios</t>
   </si>
   <si>
-    <t xml:space="preserve">En los lápices la  H  significa  flojo </t>
+    <t>En los lápices la "H" significa "flojo"</t>
   </si>
   <si>
     <t>Una foto bien hecha no tiene el horizonte en el centro de la imagen</t>
@@ -190,7 +190,190 @@
     <t>La magia es el intento de control de Dios mediante rituales</t>
   </si>
   <si>
-    <t>Los libros apocalipticos estan caracterizados por tener un final con moraleja</t>
+    <t>El "levítico" forma parte de las cartas de los apóstoles</t>
+  </si>
+  <si>
+    <t>La primera persona del presente de tossir es "tus"</t>
+  </si>
+  <si>
+    <t>En valenciano: La 1ª persona del singular del presente de indicativo del verbo "morir" es "muir"</t>
+  </si>
+  <si>
+    <t>Los cromosomas del hombre son XX</t>
+  </si>
+  <si>
+    <t>Un climograma es el conjunto de temperatura y de las precipitaciones</t>
+  </si>
+  <si>
+    <t>En una oración con PN necesariamente va a haber un PVO</t>
+  </si>
+  <si>
+    <t>El hombre puede aportar cromosomas X o Y</t>
+  </si>
+  <si>
+    <t>Garcilaso de la Vega pertenece al Barroco</t>
+  </si>
+  <si>
+    <t>La "j" se escribe con a, e, i, o, u en valenciano</t>
+  </si>
+  <si>
+    <t>El ArH es un metal</t>
+  </si>
+  <si>
+    <t>Pluma en inglés es shuttlecock</t>
+  </si>
+  <si>
+    <t>En hockey sala la bola y los sticks son iguales</t>
+  </si>
+  <si>
+    <t>El paso de sólido a líquido es la solidificación</t>
+  </si>
+  <si>
+    <t>La capital de Portugal es Lisboa</t>
+  </si>
+  <si>
+    <t>En inglés: para hacer una frase en pasiva hay que usar el participio del verbo en cuestión</t>
+  </si>
+  <si>
+    <t>La capital de Noruega es Washington</t>
+  </si>
+  <si>
+    <t>En inglés: Un modal verb es might</t>
+  </si>
+  <si>
+    <t>(a+b)² se puede resolver como (a+b)*(a+b)</t>
+  </si>
+  <si>
+    <t>El pasado de sing es singed</t>
+  </si>
+  <si>
+    <t>EL primer elemento de la tabla periódica es el helio</t>
+  </si>
+  <si>
+    <t>La capital de España es Portugal</t>
+  </si>
+  <si>
+    <t>May y might significan cosas muy parecidas</t>
+  </si>
+  <si>
+    <t>A la hora de calentar, el movimiento que utilizamos en el tobillo es la flexión</t>
+  </si>
+  <si>
+    <t>Un tresillo de negras equivale a una blanca</t>
+  </si>
+  <si>
+    <t>La función cuadrática se caracteriza por tener un término elevado a 3</t>
+  </si>
+  <si>
+    <t>Un tresillo de redondas equivale a 2 blancas con puntillo</t>
+  </si>
+  <si>
+    <t>El desenfoque se ha de realizar siempre en el centro</t>
+  </si>
+  <si>
+    <t>El símbolo pp significa pianissimo</t>
+  </si>
+  <si>
+    <t>La categoría "Landscape Photography" trata de fotos de helicópteros</t>
+  </si>
+  <si>
+    <t>fi (en estadística) significa valor auténtico absoluto</t>
+  </si>
+  <si>
+    <t>"Filemón" pertenece al libro de las Cartas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Los Rolling Stones</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>se formaron en EE.UU</t>
+    </r>
+  </si>
+  <si>
+    <t>La movida Madrileña fue en medio de la guerra civil española</t>
+  </si>
+  <si>
+    <t>El Quinto Elemento está protagonizada por Bruce Willis</t>
+  </si>
+  <si>
+    <t>Una técnica de 3D es el desenfoque</t>
+  </si>
+  <si>
+    <t>Los libros sapienciales están caracterizados por su escritura en verso</t>
+  </si>
+  <si>
+    <t>Excepcionalmente la "x" forma parte de las gráfias de la s sorda</t>
+  </si>
+  <si>
+    <t>El libro de OS pertenece a Osas</t>
+  </si>
+  <si>
+    <t>Las vitaminas hidrosolubles son las: "K", "E", "D" y "A"</t>
+  </si>
+  <si>
+    <t>Los puntos suspensivos sirven para indicar que una enumeración está inacabada</t>
+  </si>
+  <si>
+    <t>La obra más famosa de Calderón de la Barca fue Polifemo y Galatea</t>
+  </si>
+  <si>
+    <t>Las células son pluricelulares</t>
+  </si>
+  <si>
+    <t>El antebrazo en inglés se dice: "prearm"</t>
+  </si>
+  <si>
+    <t>La fórmula del hidruro de sodio es NaH</t>
+  </si>
+  <si>
+    <t>La provincia de Teruel se encuentra al sur de Cadiz</t>
+  </si>
+  <si>
+    <t>El escritor del Barroco que tenía una nariz enorme era Góngora</t>
+  </si>
+  <si>
+    <t>Las celulas son pluricelulares</t>
+  </si>
+  <si>
+    <t>El calentamiento solo se hace al principio de la clase</t>
+  </si>
+  <si>
+    <t>El dominio de una función constante es una "R" con dos palos</t>
+  </si>
+  <si>
+    <t>El número másico del hidrógeno es 1,01</t>
+  </si>
+  <si>
+    <t>La capital de Moldavia es Kiev</t>
+  </si>
+  <si>
+    <t>El bemol es lo mismo que  el sostenido</t>
+  </si>
+  <si>
+    <t>Es más común la ese sonora que la sorda</t>
+  </si>
+  <si>
+    <t>La capital de Finlandia es Estocolmo</t>
+  </si>
+  <si>
+    <t>La z pertenece a la ese sorda</t>
   </si>
 </sst>
 </file>
@@ -200,7 +383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d-m-yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -213,9 +396,6 @@
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
     <font/>
@@ -244,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -254,22 +434,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -495,7 +666,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
@@ -509,9 +683,6 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -520,9 +691,6 @@
       <c r="B2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -539,7 +707,7 @@
       <c r="B4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -548,10 +716,7 @@
       <c r="B5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -560,9 +725,6 @@
       <c r="B6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -573,7 +735,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="b">
@@ -637,7 +799,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="b">
@@ -653,7 +815,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="2" t="b">
@@ -701,7 +863,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="2" t="b">
@@ -749,7 +911,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="2" t="b">
@@ -829,7 +991,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="2" t="b">
@@ -877,7 +1039,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="2" t="b">
@@ -933,7 +1095,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="2" t="b">
@@ -941,7 +1103,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="2" t="b">
@@ -957,7 +1119,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="2" t="b">
@@ -981,15 +1143,447 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="2" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:F4 E6:F7 E13:F14">
+  <conditionalFormatting sqref="D1:E2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>"si(E7 = F7)"</formula>
     </cfRule>
